--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3518.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3518.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.510178159658199</v>
+        <v>1.59145724773407</v>
       </c>
       <c r="B1">
-        <v>2.632033014213677</v>
+        <v>2.467047691345215</v>
       </c>
       <c r="C1">
-        <v>3.271278472355241</v>
+        <v>2.178581714630127</v>
       </c>
       <c r="D1">
-        <v>3.772888317085584</v>
+        <v>1.813200831413269</v>
       </c>
       <c r="E1">
-        <v>1.646871031612458</v>
+        <v>1.718773603439331</v>
       </c>
     </row>
   </sheetData>
